--- a/data/MSCI.xlsx
+++ b/data/MSCI.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -415,6 +445,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -432,12 +477,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BIO 160, BIO 162, and BIO 263. Recommended: STAT 218.</t>
+          <t>BIO 160, BIO 162, and BIO 263.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>STAT 218.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W, SP </t>
         </is>
       </c>
     </row>
@@ -454,10 +514,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BIO 160; BIO 161; BIO 263; CHEM 129; and STAT 218.</t>
+          <t>BIO 160; BIO 161; BIO 263; CHEM 129; and STAT 218.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -481,6 +556,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -498,10 +588,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BIO 162; BIO 263; and STAT 218.</t>
+          <t>BIO 162; BIO 263; and STAT 218.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -525,6 +630,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -542,10 +662,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PSC 201 or MSCI 301 or MSCI 328; Junior standing and consent of instructor.</t>
+          <t>PSC 201 or MSCI 301 or MSCI 328; Junior standing and consent of instructor.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -564,10 +699,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CHEM 302; MSCI 301; PSC 201; and STAT 218.</t>
+          <t>CHEM 302; MSCI 301; PSC 201; and STAT 218.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -586,12 +736,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BIO 263, open water diving certificate, and instructor consent. Recommended: MSCI 301 or MSCI 328.</t>
+          <t>BIO 263, open water diving certificate, and instructor consent.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SU</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>MSCI 301 or MSCI 328.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SU </t>
         </is>
       </c>
     </row>
@@ -608,12 +773,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BIO 160 and BIO 263; and BIO 327 or BIO 363 or BIO 401 or BOT 326 or MSCI 328; or Graduate standing in Biological Sciences. Recommended: PSC 201.</t>
+          <t>BIO 160 and BIO 263; and BIO 327 or BIO 363 or BIO 401 or BOT 326 or MSCI 328; or Graduate standing in Biological Sciences.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>PSC 201.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -630,10 +810,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Junior standing and BIO 162.</t>
+          <t>Junior standing and BIO 162.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -652,10 +847,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BIO 160, BIO 162, and BIO 263.</t>
+          <t>BIO 160, BIO 162, and BIO 263.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -674,12 +884,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BIO 162. Recommended: BIO 322.</t>
+          <t>BIO 162.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>BIO 322.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -696,10 +921,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Junior standing; BIO 322, BIO 336, MSCI 300, MSCI 328, or PSC 201; completion of GE Area A with grades of C- or better; and GE Area B2 or BIO 211.</t>
+          <t>Junior standing; BIO 322, BIO 336, MSCI 300, MSCI 328, or PSC 201; completion of GE Area A with grades of C- or better; and GE Area B2 or BIO 211.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>F</t>
         </is>
